--- a/記帳表.xlsx
+++ b/記帳表.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yulin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A809462C-EC46-40E8-8B01-C7C3F4198E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E231D891-CAC9-114F-8125-66B4E58695A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="總預算" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>預算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>記帳者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購買文具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張鈺淋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -35,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,9 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -361,23 +392,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="2" width="11.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>350</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/記帳表.xlsx
+++ b/記帳表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yulin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\大學\113-1\軟體開發與維護\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E231D891-CAC9-114F-8125-66B4E58695A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A94A76B-171F-440A-8439-43F9F1F525FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14390" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總預算" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>預算</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝飾品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李湘菱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,13 +400,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -406,7 +414,7 @@
     <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -414,7 +422,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -428,7 +436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -439,6 +447,20 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>300</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/記帳表.xlsx
+++ b/記帳表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yulin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E231D891-CAC9-114F-8125-66B4E58695A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F35696-1EC3-004A-875D-17B0F4B3818F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>預算</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購買衛生紙（24包）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,15 +396,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="11.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.796875" style="1"/>
@@ -442,6 +447,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>700</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/記帳表.xlsx
+++ b/記帳表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\大學\113-1\軟體開發與維護\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A94A76B-171F-440A-8439-43F9F1F525FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6646A4EA-CEB1-45A1-AFBD-C14E3FF5BF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2280" windowWidth="14390" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>預算</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>李湘菱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服裝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -464,6 +468,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>300</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
